--- a/gerbers/JLCPCB-SMT-C64-Composite-Modulator-bom.xlsx
+++ b/gerbers/JLCPCB-SMT-C64-Composite-Modulator-bom.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiCad\Projets\C64-Composite-Modulator\gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A91CF-296E-4558-BF5E-54B0F9E18176}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE933FD0-4F14-4AFE-A5EC-AC4D50B746D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D18D35A4-46E2-45CA-9271-F5A0CDB7525E}"/>
+    <workbookView xWindow="40870" yWindow="2680" windowWidth="28800" windowHeight="15370" xr2:uid="{D18D35A4-46E2-45CA-9271-F5A0CDB7525E}"/>
   </bookViews>
   <sheets>
     <sheet name="C64 Composite Modulator SMT Bom" sheetId="5" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>Comment</t>
   </si>
@@ -67,9 +66,6 @@
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t>C49678</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -88,15 +84,9 @@
     <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
-    <t>C1,C4</t>
-  </si>
-  <si>
     <t>33nF</t>
   </si>
   <si>
-    <t>C1740</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -112,12 +102,6 @@
     <t>C6</t>
   </si>
   <si>
-    <t>C1834</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
     <t>Diode_SMD:D_SOD-323F</t>
   </si>
   <si>
@@ -130,90 +114,42 @@
     <t>L1</t>
   </si>
   <si>
-    <t>Inductor_SMD:L_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>C1051</t>
-  </si>
-  <si>
-    <t>BC847B</t>
-  </si>
-  <si>
-    <t>Q1,Q2</t>
-  </si>
-  <si>
-    <t>C118728</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
     <t>C17820</t>
   </si>
   <si>
-    <t>3K3</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
     <t>C26010</t>
   </si>
   <si>
-    <t>5K6</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
     <t>C4382</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
     <t>C17557</t>
   </si>
   <si>
-    <t>470</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
     <t>C17710</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R1,R7</t>
-  </si>
-  <si>
     <t>C17513</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>R8,R9,R11</t>
-  </si>
-  <si>
-    <t>78L05</t>
-  </si>
-  <si>
     <t>Package_TO_SOT_SMD:SOT-89-3</t>
   </si>
   <si>
@@ -221,6 +157,93 @@
   </si>
   <si>
     <t>C5</t>
+  </si>
+  <si>
+    <t>BC847C</t>
+  </si>
+  <si>
+    <t>1KΩ</t>
+  </si>
+  <si>
+    <t>3K3Ω</t>
+  </si>
+  <si>
+    <t>5K6Ω</t>
+  </si>
+  <si>
+    <t>68Ω</t>
+  </si>
+  <si>
+    <t>220Ω</t>
+  </si>
+  <si>
+    <t>470Ω</t>
+  </si>
+  <si>
+    <t>150Ω</t>
+  </si>
+  <si>
+    <t>75Ω</t>
+  </si>
+  <si>
+    <t>78L05G-AB3-R</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>C8664</t>
+  </si>
+  <si>
+    <t>1N4148WS</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:C_Disc_D4.7mm_W2.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>C159777</t>
+  </si>
+  <si>
+    <t>C28233</t>
+  </si>
+  <si>
+    <t>C193697</t>
+  </si>
+  <si>
+    <t>C342340</t>
+  </si>
+  <si>
+    <t>C95978</t>
   </si>
 </sst>
 </file>
@@ -256,9 +279,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,10 +312,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0929B906-5E71-4AA4-9A83-4245E5F9F34D}" name="_C64_Composite_Modulator__2" displayName="_C64_Composite_Modulator__2" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{553479E9-BCB2-4669-BE7A-A238296A783E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0929B906-5E71-4AA4-9A83-4245E5F9F34D}" name="_C64_Composite_Modulator__2" displayName="_C64_Composite_Modulator__2" ref="A1:D24" totalsRowShown="0">
+  <autoFilter ref="A1:D24" xr:uid="{553479E9-BCB2-4669-BE7A-A238296A783E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
-    <sortCondition ref="D1:D18"/>
+    <sortCondition ref="B2:B18"/>
+    <sortCondition ref="C2:C18"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6B3DBF1E-B82C-496E-B700-D6FD6BAACDF7}" name="Comment" dataDxfId="3"/>
@@ -602,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D68F5E2-B8E7-4850-940A-58CE210440F4}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,241 +654,325 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="D24" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -873,18 +980,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47BD5FC-C40A-456F-B7D2-3151A05833F9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/gerbers/JLCPCB-SMT-C64-Composite-Modulator-bom.xlsx
+++ b/gerbers/JLCPCB-SMT-C64-Composite-Modulator-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KiCad\Projets\C64-Composite-Modulator\gerbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE933FD0-4F14-4AFE-A5EC-AC4D50B746D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14B66F-0BB0-4ED4-88FD-E7EF439361FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40870" yWindow="2680" windowWidth="28800" windowHeight="15370" xr2:uid="{D18D35A4-46E2-45CA-9271-F5A0CDB7525E}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D18D35A4-46E2-45CA-9271-F5A0CDB7525E}"/>
   </bookViews>
   <sheets>
     <sheet name="C64 Composite Modulator SMT Bom" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Comment</t>
   </si>
@@ -222,28 +222,19 @@
     <t>1N4148WS</t>
   </si>
   <si>
-    <t>CO1</t>
-  </si>
-  <si>
-    <t>Capacitor_THT:C_Disc_D4.7mm_W2.5mm_P5.00mm</t>
-  </si>
-  <si>
     <t>Inductor_SMD:L_0805_2012Metric</t>
   </si>
   <si>
-    <t>C159777</t>
-  </si>
-  <si>
     <t>C28233</t>
   </si>
   <si>
     <t>C193697</t>
   </si>
   <si>
-    <t>C342340</t>
-  </si>
-  <si>
-    <t>C95978</t>
+    <t>C1739</t>
+  </si>
+  <si>
+    <t>C1046</t>
   </si>
 </sst>
 </file>
@@ -312,11 +303,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0929B906-5E71-4AA4-9A83-4245E5F9F34D}" name="_C64_Composite_Modulator__2" displayName="_C64_Composite_Modulator__2" ref="A1:D24" totalsRowShown="0">
-  <autoFilter ref="A1:D24" xr:uid="{553479E9-BCB2-4669-BE7A-A238296A783E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
-    <sortCondition ref="B2:B18"/>
-    <sortCondition ref="C2:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0929B906-5E71-4AA4-9A83-4245E5F9F34D}" name="_C64_Composite_Modulator__2" displayName="_C64_Composite_Modulator__2" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23" xr:uid="{553479E9-BCB2-4669-BE7A-A238296A783E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+    <sortCondition ref="B2:B13"/>
+    <sortCondition ref="C2:C13"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6B3DBF1E-B82C-496E-B700-D6FD6BAACDF7}" name="Comment" dataDxfId="3"/>
@@ -625,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D68F5E2-B8E7-4850-940A-58CE210440F4}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -734,49 +725,49 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -784,7 +775,7 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -795,142 +786,142 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -938,7 +929,7 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -949,36 +940,23 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
